--- a/biology/Botanique/Hydrolea_palustris/Hydrolea_palustris.xlsx
+++ b/biology/Botanique/Hydrolea_palustris/Hydrolea_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrolea palustris est une espèce d'herbacée ou de sous-arbrisseau appartenant à la famille des Hydroleaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrolea palustris est une herbacée dressée ou décombante, haute de 60 cm, avec de courtes branches florifères ou avec des branches provenant de tiges prostrées, ou non ramifiées. 
 Les tiges sont glabres, de couleur verte à brune. 
@@ -521,7 +535,7 @@
 Les pétales longs de 5 à 7 mm pour 2-3 mm de large.
 L'ovaire est glabre, avec un styles long de 1,5 à 2 mm.
 Le fruit est une capsule globuleuse, glabre, tombant souvent à maturité, longue de 3,5-5,5 mm pour 3,5-4,5 mm de large.
-Les graines de forme ovoïde, longues de 0,4-0,6 mm, avec des crêtes longitudinales, et des réticulations se rétrécissant aux articulations circulaires[3].
+Les graines de forme ovoïde, longues de 0,4-0,6 mm, avec des crêtes longitudinales, et des réticulations se rétrécissant aux articulations circulaires.
 Hydrolea palustris est la seule espèce de son groupe présentant des inflorescences véritablement axillaires, avec des fleurs pouvant être solitaires, ou portées en fascicules, sur les nœuds de la tige principale, et avec des capsules matures tombant souvent (caractéristique partagée avec H. zeylanica et H. Floribunda).
 </t>
         </is>
@@ -551,12 +565,14 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hydrolea palustris présente une aire de répartition principalement d'Afrique tropicale[3], mais plusieurs spécimens ont été collectés dans la zone néotropicaleGBIF       (08 mai 2022)[2], comme l'échantillon type collecté en Guyane.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hydrolea palustris présente une aire de répartition principalement d'Afrique tropicale, mais plusieurs spécimens ont été collectés dans la zone néotropicaleGBIF       (08 mai 2022), comme l'échantillon type collecté en Guyane.
 Certains ont tenté d'expliquer cette présence d'une cette espèce principalement africaine en Amérique du sud :
 par une confusion entre les noms "Guinée" et "Guyane", et Aublet traitant un spécimen africain comme originaire de Guyane (improbable au vu des autres spécimens collectés dans la région).
-par une introduction via un navire négrier du commerce triangulaire, traversant l'océan Atlantique de l'Afrique de l'Ouest au nord de l'Amérique du Sud[3] (improbable au vu des sites de collecte éloignés des zones d'activité humaine).</t>
+par une introduction via un navire négrier du commerce triangulaire, traversant l'océan Atlantique de l'Afrique de l'Ouest au nord de l'Amérique du Sud (improbable au vu des sites de collecte éloignés des zones d'activité humaine).</t>
         </is>
       </c>
     </row>
@@ -584,9 +600,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrolea palustris fleurit d'avril à septembre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrolea palustris fleurit d'avril à septembre.
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet qui le premier décrivit Hydrolea palustris var. palustris sous le nom de palustris guianensis, en proposa le protologue suivant[4]: 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet qui le premier décrivit Hydrolea palustris var. palustris sous le nom de palustris guianensis, en proposa le protologue suivant: 
 « SAGONEA (paluſtris). (Tabula 111.)
 Planta perennis, caules plures, rectos, ſimplices, cylindraceos, tripedales, è radice emittens. Folia alterna, ovato-lanceolata, in acumen longum deſinentia, integerrima, glabra, ſubſeſſilia. Floras numeroſi, axillares, brevi pedunculo innixi. Corolla cærulea.
 Florebat Maio.
